--- a/feature_extraction_normal.xlsx
+++ b/feature_extraction_normal.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\MATLAB\digital signal processing\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\Electromyography Project\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9AC122-0D02-4E96-BE31-14D7DB3E8FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5301DAEC-DE26-4A9D-9890-F3534737F172}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4790" yWindow="1950" windowWidth="14400" windowHeight="7360" xr2:uid="{02CD76C1-66BC-4753-B376-DD896FD69FAB}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{40C9537E-32B6-49A1-A72C-A07E359D165A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -370,16 +370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D571D4B-F27C-4FAF-912C-554E56DC143F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4CFD9C-195B-43D0-9DEE-8086F0521656}">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>8.9136392848263704E-2</v>
       </c>
@@ -393,7 +393,7 @@
         <v>59.024700000000109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6.3876616143937928E-2</v>
       </c>
@@ -407,7 +407,7 @@
         <v>44.86550000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5.3285080838823905E-2</v>
       </c>
@@ -421,7 +421,7 @@
         <v>39.046600000000019</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5.1968750898977747E-2</v>
       </c>
@@ -435,7 +435,7 @@
         <v>34.124499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6.26062251697065E-2</v>
       </c>
@@ -449,7 +449,7 @@
         <v>45.190299999999873</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8.9960821528040802E-2</v>
       </c>
@@ -463,7 +463,7 @@
         <v>58.421900000000065</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7.8175276398615906E-2</v>
       </c>
@@ -477,7 +477,7 @@
         <v>50.570400000000014</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9.363286549070271E-2</v>
       </c>
@@ -491,7 +491,7 @@
         <v>61.103800000000064</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9.5772975520237433E-2</v>
       </c>
@@ -505,7 +505,7 @@
         <v>66.017600000000073</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5.2049149560775707E-2</v>
       </c>
@@ -519,7 +519,7 @@
         <v>34.517499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5.3883488194436703E-2</v>
       </c>
@@ -533,7 +533,7 @@
         <v>34.935000000000116</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4.4416365677529254E-2</v>
       </c>
@@ -547,7 +547,7 @@
         <v>29.910399999999946</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5.6983114428749843E-2</v>
       </c>
@@ -561,7 +561,7 @@
         <v>40.381100000000082</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.10493671311795515</v>
       </c>
@@ -575,7 +575,7 @@
         <v>79.443400000000196</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.1572500321780573</v>
       </c>
@@ -589,7 +589,7 @@
         <v>108.37819999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.1597856545187962</v>
       </c>
@@ -603,7 +603,7 @@
         <v>107.43650000000018</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.1423315096175124</v>
       </c>
@@ -617,7 +617,7 @@
         <v>92.590099999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.11407210307520427</v>
       </c>
@@ -631,7 +631,7 @@
         <v>94.562800000000152</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5.978338163737474E-2</v>
       </c>
@@ -645,7 +645,7 @@
         <v>44.354399999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7.2307092736466766E-2</v>
       </c>
@@ -659,7 +659,7 @@
         <v>56.82680000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6.9834320358975341E-2</v>
       </c>
@@ -673,7 +673,7 @@
         <v>52.343600000000023</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6.6451917278585654E-2</v>
       </c>
@@ -687,7 +687,7 @@
         <v>46.472700000000017</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5.9739521173173098E-2</v>
       </c>
@@ -701,7 +701,7 @@
         <v>38.20529999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5.6740339970782663E-2</v>
       </c>
@@ -715,7 +715,7 @@
         <v>38.124599999999944</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>7.5743257389684515E-2</v>
       </c>
@@ -729,7 +729,7 @@
         <v>53.842200000000155</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5.3413170098768739E-2</v>
       </c>
@@ -743,7 +743,7 @@
         <v>35.475399999999958</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6.0716289000563896E-2</v>
       </c>
@@ -757,7 +757,7 @@
         <v>40.908100000000012</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.7533900789013055E-2</v>
       </c>
@@ -771,7 +771,7 @@
         <v>37.521599999999964</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6.0134573582923102E-2</v>
       </c>
@@ -785,7 +785,7 @@
         <v>41.353399999999972</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5.6318327034811648E-2</v>
       </c>
@@ -799,7 +799,7 @@
         <v>37.372799999999962</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5.993309861837616E-2</v>
       </c>
@@ -813,7 +813,7 @@
         <v>36.089299999999952</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6.9156636051791898E-2</v>
       </c>
@@ -827,7 +827,7 @@
         <v>51.60210000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.10463281134519908</v>
       </c>
@@ -841,7 +841,7 @@
         <v>83.906899999999979</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>8.1522078665843614E-2</v>
       </c>
@@ -855,7 +855,7 @@
         <v>50.677900000000086</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7.4280509287430158E-2</v>
       </c>
@@ -869,7 +869,7 @@
         <v>52.335400000000114</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5.744688137749511E-2</v>
       </c>
@@ -883,7 +883,7 @@
         <v>41.807200000000023</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4.8658018455337876E-2</v>
       </c>
@@ -897,7 +897,7 @@
         <v>31.998599999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5.0191564829162254E-2</v>
       </c>
@@ -911,7 +911,7 @@
         <v>33.771599999999964</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>8.5352604295358181E-2</v>
       </c>
@@ -925,7 +925,7 @@
         <v>65.44240000000012</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.12569284808611833</v>
       </c>
@@ -939,7 +939,7 @@
         <v>92.091199999999972</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.10911297681760869</v>
       </c>
@@ -953,7 +953,7 @@
         <v>86.561500000000308</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>7.6420217285741859E-2</v>
       </c>
@@ -967,7 +967,7 @@
         <v>56.653099999999945</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.11775073328858732</v>
       </c>
@@ -981,7 +981,7 @@
         <v>97.782900000000012</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7.653285686553192E-2</v>
       </c>
@@ -995,7 +995,7 @@
         <v>47.891600000000075</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8.0332901478783802E-2</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>56.839800000000025</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>7.1340702477617854E-2</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>55.213099999999983</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>6.3431420289947721E-2</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>42.530599999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>6.0850445602312453E-2</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>43.795900000000024</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6.5664970951032908E-2</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>46.576900000000109</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7.287784567342806E-2</v>
       </c>
